--- a/listOfStocks.xlsx
+++ b/listOfStocks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="11060" yWindow="1140" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
   <si>
     <t>CTIC</t>
   </si>
@@ -226,6 +226,51 @@
   </si>
   <si>
     <t>WETF</t>
+  </si>
+  <si>
+    <t>OPGN</t>
+  </si>
+  <si>
+    <t>OPTT</t>
+  </si>
+  <si>
+    <t>SPU</t>
+  </si>
+  <si>
+    <t>TOPS</t>
+  </si>
+  <si>
+    <t>TCPI</t>
+  </si>
+  <si>
+    <t>PGNX</t>
+  </si>
+  <si>
+    <t>CCRC</t>
+  </si>
+  <si>
+    <t>APWC</t>
+  </si>
+  <si>
+    <t>SHIP</t>
+  </si>
+  <si>
+    <t>ZSAN</t>
+  </si>
+  <si>
+    <t>LIFE</t>
+  </si>
+  <si>
+    <t>ZAIS</t>
+  </si>
+  <si>
+    <t>CHCI</t>
+  </si>
+  <si>
+    <t>AWH</t>
+  </si>
+  <si>
+    <t>MDSO</t>
   </si>
 </sst>
 </file>
@@ -614,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1172,6 +1217,81 @@
     <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
